--- a/vendor.xlsx
+++ b/vendor.xlsx
@@ -5,28 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\metal_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\metal_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D59A8F-04AC-40F8-8CF5-9113DDDB850C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6295A1-CCDF-4F0D-AE92-B8030320BC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="ledger_name">Sheet1!$A$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="236">
-  <si>
-    <t>mobile_no</t>
-  </si>
-  <si>
-    <t>phone_no</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="237">
   <si>
     <t>email_id</t>
   </si>
@@ -34,54 +31,27 @@
     <t>gst_no</t>
   </si>
   <si>
-    <t>DUTTAPUKUR</t>
-  </si>
-  <si>
     <t>9830948897</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>NABADWIP</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>KOLKATA</t>
-  </si>
-  <si>
     <t>999999999</t>
   </si>
   <si>
-    <t>MORADABAD</t>
-  </si>
-  <si>
-    <t>HABRA</t>
-  </si>
-  <si>
     <t>9007863215</t>
   </si>
   <si>
-    <t>PATRASAYER</t>
-  </si>
-  <si>
     <t>9745612322</t>
   </si>
   <si>
-    <t>BANIPUR, HABRA</t>
-  </si>
-  <si>
-    <t>JALESAR</t>
-  </si>
-  <si>
     <t>7351552288</t>
   </si>
   <si>
-    <t>BALLY</t>
-  </si>
-  <si>
     <t>9434125635</t>
   </si>
   <si>
@@ -91,18 +61,12 @@
     <t>9999999999</t>
   </si>
   <si>
-    <t>GOBARDANGA</t>
-  </si>
-  <si>
     <t>9434125489</t>
   </si>
   <si>
     <t>9999999992</t>
   </si>
   <si>
-    <t>HINDMOTOR</t>
-  </si>
-  <si>
     <t>9564779896</t>
   </si>
   <si>
@@ -112,18 +76,12 @@
     <t>9999999994</t>
   </si>
   <si>
-    <t>BANIPUR</t>
-  </si>
-  <si>
     <t>9456123911</t>
   </si>
   <si>
     <t>9999999995</t>
   </si>
   <si>
-    <t>MATHURA</t>
-  </si>
-  <si>
     <t>09837061366</t>
   </si>
   <si>
@@ -133,30 +91,18 @@
     <t>9956199299</t>
   </si>
   <si>
-    <t>MATIYARI</t>
-  </si>
-  <si>
     <t>9999999997</t>
   </si>
   <si>
-    <t>SHEORAPHULI</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>9965652533</t>
   </si>
   <si>
-    <t>MAHISHADAL</t>
-  </si>
-  <si>
     <t>9878456922</t>
   </si>
   <si>
-    <t>BURRA BAZAR</t>
-  </si>
-  <si>
     <t>8956247987</t>
   </si>
   <si>
@@ -166,18 +112,9 @@
     <t>8171449860</t>
   </si>
   <si>
-    <t>BANKURA</t>
-  </si>
-  <si>
     <t>8956784222</t>
   </si>
   <si>
-    <t>BASHBERIA</t>
-  </si>
-  <si>
-    <t>SIMLA STREET</t>
-  </si>
-  <si>
     <t>9898982536</t>
   </si>
   <si>
@@ -196,15 +133,9 @@
     <t>09557968786</t>
   </si>
   <si>
-    <t>LABPUR</t>
-  </si>
-  <si>
     <t>09411857996</t>
   </si>
   <si>
-    <t>SIMLEY</t>
-  </si>
-  <si>
     <t>07983667524</t>
   </si>
   <si>
@@ -226,12 +157,6 @@
     <t xml:space="preserve">09927471052 </t>
   </si>
   <si>
-    <t>MUCHIBAJAR</t>
-  </si>
-  <si>
-    <t>REWARI</t>
-  </si>
-  <si>
     <t>07906840418</t>
   </si>
   <si>
@@ -247,12 +172,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>CHAKDAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REWARI </t>
-  </si>
-  <si>
     <t>09416890110</t>
   </si>
   <si>
@@ -265,9 +184,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>CK. 49/44A, BHULETAN, VARANASI 221001</t>
-  </si>
-  <si>
     <t>9936897508</t>
   </si>
   <si>
@@ -280,21 +196,6 @@
     <t>9998887772</t>
   </si>
   <si>
-    <t>BURRABAZAR</t>
-  </si>
-  <si>
-    <t>JALESWAR</t>
-  </si>
-  <si>
-    <t>KANNAGAR</t>
-  </si>
-  <si>
-    <t>BENARAS</t>
-  </si>
-  <si>
-    <t>HATHRAS</t>
-  </si>
-  <si>
     <t>8449440006</t>
   </si>
   <si>
@@ -310,18 +211,12 @@
     <t>9143258372</t>
   </si>
   <si>
-    <t>71, BARTALA STREET, 2ND FLOOR</t>
-  </si>
-  <si>
     <t>7439037676</t>
   </si>
   <si>
     <t>19AFPPC8676L1ZK</t>
   </si>
   <si>
-    <t>NABADIP</t>
-  </si>
-  <si>
     <t>9411969982</t>
   </si>
   <si>
@@ -331,39 +226,21 @@
     <t>9831110286</t>
   </si>
   <si>
-    <t>PATNA</t>
-  </si>
-  <si>
-    <t>SHERAPHULI</t>
-  </si>
-  <si>
     <t>9932397409</t>
   </si>
   <si>
-    <t>BARANAGAR</t>
-  </si>
-  <si>
-    <t>MANOHAR COLONY JAGADHARI</t>
-  </si>
-  <si>
     <t>9896045947</t>
   </si>
   <si>
     <t>9468100644</t>
   </si>
   <si>
-    <t>BERHAMPORE</t>
-  </si>
-  <si>
     <t>9874114986</t>
   </si>
   <si>
     <t>9932077248</t>
   </si>
   <si>
-    <t>ODISHA</t>
-  </si>
-  <si>
     <t>state_id</t>
   </si>
   <si>
@@ -728,6 +605,135 @@
   </si>
   <si>
     <t>Jaipur</t>
+  </si>
+  <si>
+    <t>mobile1</t>
+  </si>
+  <si>
+    <t>mobile2</t>
+  </si>
+  <si>
+    <t>Duttapukur</t>
+  </si>
+  <si>
+    <t>Nabadwip</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Moradabad</t>
+  </si>
+  <si>
+    <t>Habra</t>
+  </si>
+  <si>
+    <t>Patrasayer</t>
+  </si>
+  <si>
+    <t>Banipur, Habra</t>
+  </si>
+  <si>
+    <t>Jalesar</t>
+  </si>
+  <si>
+    <t>Bally</t>
+  </si>
+  <si>
+    <t>Gobardanga</t>
+  </si>
+  <si>
+    <t>Hindmotor</t>
+  </si>
+  <si>
+    <t>Banipur</t>
+  </si>
+  <si>
+    <t>Mathura</t>
+  </si>
+  <si>
+    <t>Matiyari</t>
+  </si>
+  <si>
+    <t>Sheoraphuli</t>
+  </si>
+  <si>
+    <t>Mahishadal</t>
+  </si>
+  <si>
+    <t>Burra Bazar</t>
+  </si>
+  <si>
+    <t>Bankura</t>
+  </si>
+  <si>
+    <t>Bashberia</t>
+  </si>
+  <si>
+    <t>Simla Street</t>
+  </si>
+  <si>
+    <t>Labpur</t>
+  </si>
+  <si>
+    <t>Simley</t>
+  </si>
+  <si>
+    <t>Muchibajar</t>
+  </si>
+  <si>
+    <t>Rewari</t>
+  </si>
+  <si>
+    <t>Chakdah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewari </t>
+  </si>
+  <si>
+    <t>Ck. 49/44A, Bhuletan, Varanasi 221001</t>
+  </si>
+  <si>
+    <t>Burrabazar</t>
+  </si>
+  <si>
+    <t>Jaleswar</t>
+  </si>
+  <si>
+    <t>Kannagar</t>
+  </si>
+  <si>
+    <t>Benaras</t>
+  </si>
+  <si>
+    <t>Hathras</t>
+  </si>
+  <si>
+    <t>71, Bartala Street, 2Nd Floor</t>
+  </si>
+  <si>
+    <t>Nabadip</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Sheraphuli</t>
+  </si>
+  <si>
+    <t>Baranagar</t>
+  </si>
+  <si>
+    <t>Manohar Colony Jagadhari</t>
+  </si>
+  <si>
+    <t>Berhampore</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -1068,19 +1074,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="123.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1112,48 +1119,56 @@
         <f>"','"</f>
         <v>','</v>
       </c>
+      <c r="H2" t="str">
+        <f>"'=&gt;"</f>
+        <v>'=&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"],"</f>
+        <v>],</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B5" t="str">
         <f>PROPER(A5)</f>
@@ -1163,16 +1178,16 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
         <v>20</v>
@@ -1181,7 +1196,7 @@
         <v>743248</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1190,29 +1205,29 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <f>CONCATENATE($A$2,$A$4,$B$2,A5,$G$2,$B$4,$B$2,B5,$G$2,$C$4,$B$2,$C$5,$G$2,$D$4,$B$2,D5,$G$2,$E$4,)</f>
-        <v>['ledger_name'=&gt;'Kalikrishna Kangsa Banik','billing_name'=&gt;'Kalikrishna Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'DUTTAPUKUR','mobile_no</v>
+        <f>CONCATENATE($A$2,$A$4,$B$2,A5,$G$2,$B$4,$B$2,B5,$G$2,$C$4,$B$2,$C$5,$G$2,$D$4,$B$2,D5,$G$2,$E$4,$B$2,E5,$G$2,$F$4,$B$2,$G$2,$H$4,$H$2,H5,$C$2,$I$4,$B$2,I5,$G$2,$K$4,$H$2,2,$C$2,$L$4,$H$2,L5,$I$2)</f>
+        <v>['ledger_name'=&gt;'Kalikrishna Kangsa Banik','billing_name'=&gt;'Kalikrishna Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'9830948897','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743248','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ref="B6:B69" si="0">PROPER(A6)</f>
         <v>Manoj Raj Bangshi</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
         <v>20</v>
@@ -1221,31 +1236,35 @@
         <v>700001</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ref="M6:M69" si="1">CONCATENATE($A$2,$A$4,$B$2,A6,$G$2,$B$4,$B$2,B6,$G$2,$C$4,$B$2,$C$5,$G$2,$D$4,$B$2,D6,$G$2,$E$4,$B$2,E6,$G$2,$F$4,$B$2,$G$2,$H$4,$H$2,H6,$C$2,$I$4,$B$2,I6,$G$2,$K$4,$H$2,2,$C$2,$L$4,$H$2,L6,$I$2)</f>
+        <v>['ledger_name'=&gt;'Manoj Raj Bangshi','billing_name'=&gt;'Manoj Raj Bangshi','ledger_group_id'=&gt;'15','address1'=&gt;'Nabadwip','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>Cash Purchase</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
         <v>20</v>
@@ -1254,31 +1273,35 @@
         <v>700001</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Cash Purchase','billing_name'=&gt;'Cash Purchase','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>Sakil</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2">
         <v>20</v>
@@ -1287,31 +1310,35 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Sakil','billing_name'=&gt;'Sakil','ledger_group_id'=&gt;'15','address1'=&gt;'Jaipur','mobile1'=&gt;'999999999','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'2','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Azim </v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
         <v>20</v>
@@ -1320,31 +1347,35 @@
         <v>700001</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Azim ','billing_name'=&gt;'Azim ','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>Rabi Banerjee</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
         <v>20</v>
@@ -1353,31 +1384,35 @@
         <v>743271</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Rabi Banerjee','billing_name'=&gt;'Rabi Banerjee','ledger_group_id'=&gt;'15','address1'=&gt;'Habra','mobile1'=&gt;'9007863215','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>Pradeep Das</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2">
         <v>20</v>
@@ -1386,31 +1421,35 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Pradeep Das','billing_name'=&gt;'Pradeep Das','ledger_group_id'=&gt;'15','address1'=&gt;'Patrasayer','mobile1'=&gt;'9745612322','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'1','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Som </v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2">
         <v>20</v>
@@ -1419,31 +1458,35 @@
         <v>700001</v>
       </c>
       <c r="J12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Som ','billing_name'=&gt;'Som ','ledger_group_id'=&gt;'15','address1'=&gt;'Banipur, Habra','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>P P Gupta</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2">
         <v>20</v>
@@ -1452,31 +1495,35 @@
         <v>244001</v>
       </c>
       <c r="J13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'P P Gupta','billing_name'=&gt;'P P Gupta','ledger_group_id'=&gt;'15','address1'=&gt;'Jalesar','mobile1'=&gt;'7351552288','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'244001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>Haripada Kangsa Banik</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>20</v>
@@ -1485,31 +1532,35 @@
         <v>711201</v>
       </c>
       <c r="J14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Haripada Kangsa Banik','billing_name'=&gt;'Haripada Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9434125635','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'711201','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>J K Banik</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>20</v>
@@ -1518,31 +1569,35 @@
         <v>743271</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'J K Banik','billing_name'=&gt;'J K Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'99999999991','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>Sanjay Biswas</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>20</v>
@@ -1551,31 +1606,35 @@
         <v>700001</v>
       </c>
       <c r="J16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Sanjay Biswas','billing_name'=&gt;'Sanjay Biswas','ledger_group_id'=&gt;'15','address1'=&gt;'Gobardanga','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>Manik China</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2">
         <v>20</v>
@@ -1584,31 +1643,35 @@
         <v>700001</v>
       </c>
       <c r="J17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Manik China','billing_name'=&gt;'Manik China','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Jadab Kangsa Banik </v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
         <v>20</v>
@@ -1617,31 +1680,35 @@
         <v>743248</v>
       </c>
       <c r="J18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Jadab Kangsa Banik ','billing_name'=&gt;'Jadab Kangsa Banik ','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'9434125489','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743248','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>Anjali</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2">
         <v>20</v>
@@ -1650,31 +1717,35 @@
         <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Anjali','billing_name'=&gt;'Anjali','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9999999992','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>Lokenath Metal (Gautam)</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2">
         <v>20</v>
@@ -1683,31 +1754,35 @@
         <v>700001</v>
       </c>
       <c r="J20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Lokenath Metal (Gautam)','billing_name'=&gt;'Lokenath Metal (Gautam)','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>Aaryan Co.</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2">
         <v>20</v>
@@ -1716,31 +1791,35 @@
         <v>700001</v>
       </c>
       <c r="J21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Aaryan Co.','billing_name'=&gt;'Aaryan Co.','ledger_group_id'=&gt;'15','address1'=&gt;'Hindmotor','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>Indrajit Acharjee</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H22" s="2">
         <v>20</v>
@@ -1749,31 +1828,35 @@
         <v>743263</v>
       </c>
       <c r="J22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Indrajit Acharjee','billing_name'=&gt;'Indrajit Acharjee','ledger_group_id'=&gt;'15','address1'=&gt;'Habra','mobile1'=&gt;'9564779896','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>Tapan Kaku</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
         <v>20</v>
@@ -1782,31 +1865,35 @@
         <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Tapan Kaku','billing_name'=&gt;'Tapan Kaku','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9999999993','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>Kansabanik Enterprise (Gobindo)</v>
       </c>
       <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H24" s="2">
         <v>20</v>
@@ -1815,31 +1902,35 @@
         <v>700001</v>
       </c>
       <c r="J24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Kansabanik Enterprise (Gobindo)','billing_name'=&gt;'Kansabanik Enterprise (Gobindo)','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>Ramesh</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2">
         <v>20</v>
@@ -1848,31 +1939,35 @@
         <v>700001</v>
       </c>
       <c r="J25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Ramesh','billing_name'=&gt;'Ramesh','ledger_group_id'=&gt;'15','address1'=&gt;'Hindmotor','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>Bhasan Kansabanik</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2">
         <v>20</v>
@@ -1881,31 +1976,35 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Bhasan Kansabanik','billing_name'=&gt;'Bhasan Kansabanik','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9999999994','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>A R Ghoongroo</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2">
         <v>20</v>
@@ -1914,31 +2013,35 @@
         <v>700001</v>
       </c>
       <c r="J27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'A R Ghoongroo','billing_name'=&gt;'A R Ghoongroo','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>Biswanath Kangsa Banik</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
         <v>20</v>
@@ -1947,31 +2050,35 @@
         <v>743233</v>
       </c>
       <c r="J28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Biswanath Kangsa Banik','billing_name'=&gt;'Biswanath Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Banipur','mobile1'=&gt;'9456123911','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743233','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>Brojo Gopal Gyin</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2">
         <v>20</v>
@@ -1980,31 +2087,35 @@
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>25145</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Brojo Gopal Gyin','billing_name'=&gt;'Brojo Gopal Gyin','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'9999999995','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;25145],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">La Coppera </v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30" s="2">
         <v>20</v>
@@ -2013,31 +2124,35 @@
         <v>281004</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>440182</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'La Coppera ','billing_name'=&gt;'La Coppera ','ledger_group_id'=&gt;'15','address1'=&gt;'Mathura','mobile1'=&gt;'09837061366','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'281004','transaction_type_id'=&gt;2,'opening_balance'=&gt;440182],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>Jugal Kangsa Banik</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2">
         <v>20</v>
@@ -2046,31 +2161,35 @@
         <v>743238</v>
       </c>
       <c r="J31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Jugal Kangsa Banik','billing_name'=&gt;'Jugal Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'9956199299','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743238','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>Sadhan Ghosh</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2">
         <v>20</v>
@@ -2079,31 +2198,35 @@
         <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Sadhan Ghosh','billing_name'=&gt;'Sadhan Ghosh','ledger_group_id'=&gt;'15','address1'=&gt;'Matiyari','mobile1'=&gt;'9999999997','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>Tarapada Silpalay</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H33" s="2">
         <v>20</v>
@@ -2112,31 +2235,35 @@
         <v>700001</v>
       </c>
       <c r="J33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>16335</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Tarapada Silpalay','billing_name'=&gt;'Tarapada Silpalay','ledger_group_id'=&gt;'15','address1'=&gt;'Sheoraphuli','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;16335],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>Shree Shee Metal</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H34" s="2">
         <v>20</v>
@@ -2145,31 +2272,35 @@
         <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Shree Shee Metal','billing_name'=&gt;'Shree Shee Metal','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'4','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>Udps</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2">
         <v>20</v>
@@ -2178,31 +2309,35 @@
         <v>743238</v>
       </c>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Udps','billing_name'=&gt;'Udps','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'9965652533','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743238','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Bapi </v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H36" s="2">
         <v>20</v>
@@ -2211,31 +2346,35 @@
         <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Bapi ','billing_name'=&gt;'Bapi ','ledger_group_id'=&gt;'15','address1'=&gt;'Nabadwip','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>Rahemat Ali</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H37" s="2">
         <v>20</v>
@@ -2244,31 +2383,35 @@
         <v>700001</v>
       </c>
       <c r="J37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Rahemat Ali','billing_name'=&gt;'Rahemat Ali','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>Nakul Ch. Rana</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38" s="2">
         <v>20</v>
@@ -2277,31 +2420,35 @@
         <v>721628</v>
       </c>
       <c r="J38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Nakul Ch. Rana','billing_name'=&gt;'Nakul Ch. Rana','ledger_group_id'=&gt;'15','address1'=&gt;'Mahishadal','mobile1'=&gt;'9878456922','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'721628','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>New Basanti</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2">
         <v>20</v>
@@ -2310,31 +2457,35 @@
         <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'New Basanti','billing_name'=&gt;'New Basanti','ledger_group_id'=&gt;'15','address1'=&gt;'Burra Bazar','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>Paras Metal</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H40" s="2">
         <v>20</v>
@@ -2343,31 +2494,35 @@
         <v>700001</v>
       </c>
       <c r="J40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Paras Metal','billing_name'=&gt;'Paras Metal','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>Sadananda</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H41" s="2">
         <v>20</v>
@@ -2376,31 +2531,35 @@
         <v>711201</v>
       </c>
       <c r="J41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Sadananda','billing_name'=&gt;'Sadananda','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'8956247987','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'711201','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>Manik Kangsa Banik</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H42" s="2">
         <v>20</v>
@@ -2409,31 +2568,35 @@
         <v>700001</v>
       </c>
       <c r="J42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Manik Kangsa Banik','billing_name'=&gt;'Manik Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>Sudangshu Banik</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H43" s="2">
         <v>20</v>
@@ -2442,31 +2605,35 @@
         <v>711201</v>
       </c>
       <c r="J43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Sudangshu Banik','billing_name'=&gt;'Sudangshu Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9654896999','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'711201','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>Uttam (Habra)</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H44" s="2">
         <v>20</v>
@@ -2475,31 +2642,35 @@
         <v>743271</v>
       </c>
       <c r="J44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Uttam (Habra)','billing_name'=&gt;'Uttam (Habra)','ledger_group_id'=&gt;'15','address1'=&gt;'Habra','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>Sujit</v>
       </c>
       <c r="D45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H45" s="2">
         <v>20</v>
@@ -2508,31 +2679,35 @@
         <v>700001</v>
       </c>
       <c r="J45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Sujit','billing_name'=&gt;'Sujit','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>Mashkoor</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H46" s="2">
         <v>20</v>
@@ -2541,31 +2716,35 @@
         <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Mashkoor','billing_name'=&gt;'Mashkoor','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'8171449860','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'4','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>Kedar Babu</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47" s="2">
         <v>20</v>
@@ -2574,31 +2753,35 @@
         <v>700001</v>
       </c>
       <c r="J47" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Kedar Babu','billing_name'=&gt;'Kedar Babu','ledger_group_id'=&gt;'15','address1'=&gt;'Bankura','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>Anil Ch. Das</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H48" s="2">
         <v>20</v>
@@ -2607,31 +2790,35 @@
         <v>712223</v>
       </c>
       <c r="J48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Anil Ch. Das','billing_name'=&gt;'Anil Ch. Das','ledger_group_id'=&gt;'15','address1'=&gt;'Sheoraphuli','mobile1'=&gt;'8956784222','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'712223','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>Kalikrishna Pramanick</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H49" s="2">
         <v>20</v>
@@ -2640,31 +2827,35 @@
         <v>7</v>
       </c>
       <c r="J49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Kalikrishna Pramanick','billing_name'=&gt;'Kalikrishna Pramanick','ledger_group_id'=&gt;'15','address1'=&gt;'Bashberia','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>Deepak Kangsa Banik (J.K)</v>
       </c>
       <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H50" s="2">
         <v>20</v>
@@ -2673,31 +2864,35 @@
         <v>700001</v>
       </c>
       <c r="J50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Deepak Kangsa Banik (J.K)','billing_name'=&gt;'Deepak Kangsa Banik (J.K)','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>Gautam</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H51" s="2">
         <v>20</v>
@@ -2706,31 +2901,35 @@
         <v>7000006</v>
       </c>
       <c r="J51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Gautam','billing_name'=&gt;'Gautam','ledger_group_id'=&gt;'15','address1'=&gt;'Simla Street','mobile1'=&gt;'9898982536','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7000006','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>Kasinath Das (Kd)</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H52" s="2">
         <v>20</v>
@@ -2739,31 +2938,35 @@
         <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Kasinath Das (Kd)','billing_name'=&gt;'Kasinath Das (Kd)','ledger_group_id'=&gt;'15','address1'=&gt;'Matiyari','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>Mohan Ch. Karmakar</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H53" s="2">
         <v>20</v>
@@ -2772,31 +2975,35 @@
         <v>722206</v>
       </c>
       <c r="J53" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Mohan Ch. Karmakar','billing_name'=&gt;'Mohan Ch. Karmakar','ledger_group_id'=&gt;'15','address1'=&gt;'Patrasayer','mobile1'=&gt;'9669878722','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'722206','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>Jamil</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H54" s="2">
         <v>20</v>
@@ -2805,31 +3012,35 @@
         <v>7</v>
       </c>
       <c r="J54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Jamil','billing_name'=&gt;'Jamil','ledger_group_id'=&gt;'15','address1'=&gt;'A','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>Shri Balaji Metal</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H55" s="2">
         <v>20</v>
@@ -2838,31 +3049,35 @@
         <v>207302</v>
       </c>
       <c r="J55" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Shri Balaji Metal','billing_name'=&gt;'Shri Balaji Metal','ledger_group_id'=&gt;'15','address1'=&gt;'Jalesar','mobile1'=&gt;'9457104090','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'207302','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
         <v>Samsuiddin</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H56" s="2">
         <v>20</v>
@@ -2871,31 +3086,35 @@
         <v>244001</v>
       </c>
       <c r="J56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L56">
         <v>144670</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Samsuiddin','billing_name'=&gt;'Samsuiddin','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'09557968786','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'244001','transaction_type_id'=&gt;2,'opening_balance'=&gt;144670],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>Noor Jahan</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H57" s="2">
         <v>20</v>
@@ -2904,31 +3123,35 @@
         <v>700001</v>
       </c>
       <c r="J57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Noor Jahan','billing_name'=&gt;'Noor Jahan','ledger_group_id'=&gt;'15','address1'=&gt;'Labpur','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
         <v>Classic</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H58" s="2">
         <v>20</v>
@@ -2937,31 +3160,35 @@
         <v>244001</v>
       </c>
       <c r="J58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L58">
         <v>320457</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Classic','billing_name'=&gt;'Classic','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'09411857996','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'244001','transaction_type_id'=&gt;2,'opening_balance'=&gt;320457],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
         <v>Suresh Singh</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H59" s="2">
         <v>20</v>
@@ -2970,31 +3197,35 @@
         <v>7</v>
       </c>
       <c r="J59" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Suresh Singh','billing_name'=&gt;'Suresh Singh','ledger_group_id'=&gt;'15','address1'=&gt;'Simley','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
         <v>Pratik Metal</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H60" s="2">
         <v>20</v>
@@ -3003,31 +3234,35 @@
         <v>700001</v>
       </c>
       <c r="J60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Pratik Metal','billing_name'=&gt;'Pratik Metal','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
         <v>Chacha</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H61" s="2">
         <v>20</v>
@@ -3036,31 +3271,35 @@
         <v>244001</v>
       </c>
       <c r="J61" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>353614</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Chacha','billing_name'=&gt;'Chacha','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'07983667524','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'244001','transaction_type_id'=&gt;2,'opening_balance'=&gt;353614],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
         <v>Ankur</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H62" s="2">
         <v>20</v>
@@ -3069,31 +3308,35 @@
         <v>281001</v>
       </c>
       <c r="J62" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L62">
         <v>103550</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Ankur','billing_name'=&gt;'Ankur','ledger_group_id'=&gt;'15','address1'=&gt;'Mathura','mobile1'=&gt;'9412279332','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'281001','transaction_type_id'=&gt;2,'opening_balance'=&gt;103550],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
         <v>Debasish Ghosh</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H63" s="2">
         <v>20</v>
@@ -3102,31 +3345,35 @@
         <v>700001</v>
       </c>
       <c r="J63" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Debasish Ghosh','billing_name'=&gt;'Debasish Ghosh','ledger_group_id'=&gt;'15','address1'=&gt;'Matiyari','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
         <v>R. K. D.</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H64" s="2">
         <v>20</v>
@@ -3135,31 +3382,35 @@
         <v>244001</v>
       </c>
       <c r="J64" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'R. K. D.','billing_name'=&gt;'R. K. D.','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'07060098452','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'244001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
         <v>Jogobondhu K Banik</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H65" s="2">
         <v>20</v>
@@ -3168,31 +3419,35 @@
         <v>7</v>
       </c>
       <c r="J65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Jogobondhu K Banik','billing_name'=&gt;'Jogobondhu K Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Muchibajar','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="0"/>
         <v>Himalaya</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H66" s="2">
         <v>20</v>
@@ -3201,31 +3456,35 @@
         <v>700001</v>
       </c>
       <c r="J66" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Himalaya','billing_name'=&gt;'Himalaya','ledger_group_id'=&gt;'15','address1'=&gt;'Rewari','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="0"/>
         <v>Arshad</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H67" s="2">
         <v>20</v>
@@ -3234,31 +3493,35 @@
         <v>244001</v>
       </c>
       <c r="J67" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Arshad','billing_name'=&gt;'Arshad','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'07906840418','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'244001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="0"/>
         <v>Tarak Da</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H68" s="2">
         <v>20</v>
@@ -3267,31 +3530,35 @@
         <v>7</v>
       </c>
       <c r="J68" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Tarak Da','billing_name'=&gt;'Tarak Da','ledger_group_id'=&gt;'15','address1'=&gt;'Burra Bazar','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="0"/>
         <v>Faizan</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H69" s="2">
         <v>20</v>
@@ -3300,31 +3567,35 @@
         <v>700001</v>
       </c>
       <c r="J69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" t="str">
+        <f t="shared" si="1"/>
+        <v>['ledger_name'=&gt;'Faizan','billing_name'=&gt;'Faizan','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" ref="B70:B120" si="1">PROPER(A70)</f>
+        <f t="shared" ref="B70:B120" si="2">PROPER(A70)</f>
         <v>Maharaja</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H70" s="2">
         <v>20</v>
@@ -3333,31 +3604,35 @@
         <v>244001</v>
       </c>
       <c r="J70" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" t="str">
+        <f t="shared" ref="M70:M120" si="3">CONCATENATE($A$2,$A$4,$B$2,A70,$G$2,$B$4,$B$2,B70,$G$2,$C$4,$B$2,$C$5,$G$2,$D$4,$B$2,D70,$G$2,$E$4,$B$2,E70,$G$2,$F$4,$B$2,$G$2,$H$4,$H$2,H70,$C$2,$I$4,$B$2,I70,$G$2,$K$4,$H$2,2,$C$2,$L$4,$H$2,L70,$I$2)</f>
+        <v>['ledger_name'=&gt;'Maharaja','billing_name'=&gt;'Maharaja','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'09411097728','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'244001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Monoranjan Kangsa Banik</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H71" s="2">
         <v>20</v>
@@ -3366,31 +3641,35 @@
         <v>7</v>
       </c>
       <c r="J71" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Monoranjan Kangsa Banik','billing_name'=&gt;'Monoranjan Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'L','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Mintu Sarkar</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H72" s="2">
         <v>20</v>
@@ -3399,31 +3678,35 @@
         <v>700001</v>
       </c>
       <c r="J72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Mintu Sarkar','billing_name'=&gt;'Mintu Sarkar','ledger_group_id'=&gt;'15','address1'=&gt;'Chakdah','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Monu </v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H73" s="2">
         <v>20</v>
@@ -3432,31 +3715,35 @@
         <v>123401</v>
       </c>
       <c r="J73" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L73">
         <v>781972</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Monu ','billing_name'=&gt;'Monu ','ledger_group_id'=&gt;'15','address1'=&gt;'Rewari ','mobile1'=&gt;'09416890110','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'123401','transaction_type_id'=&gt;2,'opening_balance'=&gt;781972],</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H74" s="2">
         <v>20</v>
@@ -3465,31 +3752,35 @@
         <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'X','billing_name'=&gt;'X','ledger_group_id'=&gt;'15','address1'=&gt;'R','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Mahesh Prasad Batuk Prasad</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="E75" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G75" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H75" s="2">
         <v>20</v>
@@ -3498,31 +3789,35 @@
         <v>221001</v>
       </c>
       <c r="J75" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L75">
         <v>157567</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Mahesh Prasad Batuk Prasad','billing_name'=&gt;'Mahesh Prasad Batuk Prasad','ledger_group_id'=&gt;'15','address1'=&gt;'Ck. 49/44A, Bhuletan, Varanasi 221001','mobile1'=&gt;'9936897508','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'221001','transaction_type_id'=&gt;2,'opening_balance'=&gt;157567],</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D.C.D</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H76" s="2">
         <v>20</v>
@@ -3531,31 +3826,35 @@
         <v>743263</v>
       </c>
       <c r="J76" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L76">
         <v>120000</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'D.C.D','billing_name'=&gt;'D.C.D','ledger_group_id'=&gt;'15','address1'=&gt;'Matiyari','mobile1'=&gt;'9998887772','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;2,'opening_balance'=&gt;120000],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G K Basu</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H77" s="2">
         <v>20</v>
@@ -3564,31 +3863,35 @@
         <v>7</v>
       </c>
       <c r="J77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'G K Basu','billing_name'=&gt;'G K Basu','ledger_group_id'=&gt;'15','address1'=&gt;'Burrabazar','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rakesh Babu</v>
       </c>
       <c r="D78" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H78" s="2">
         <v>20</v>
@@ -3597,31 +3900,35 @@
         <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Rakesh Babu','billing_name'=&gt;'Rakesh Babu','ledger_group_id'=&gt;'15','address1'=&gt;'Jaleswar','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'4','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Gokul Kangsa Banik</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H79" s="2">
         <v>20</v>
@@ -3630,31 +3937,35 @@
         <v>7</v>
       </c>
       <c r="J79" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Gokul Kangsa Banik','billing_name'=&gt;'Gokul Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Kannagar','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Modhu Kangsa Banik (Tapa)</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H80" s="2">
         <v>20</v>
@@ -3663,31 +3974,35 @@
         <v>7</v>
       </c>
       <c r="J80" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Modhu Kangsa Banik (Tapa)','billing_name'=&gt;'Modhu Kangsa Banik (Tapa)','ledger_group_id'=&gt;'15','address1'=&gt;'Nabadwip','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Tapas</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H81" s="2">
         <v>20</v>
@@ -3696,31 +4011,35 @@
         <v>7</v>
       </c>
       <c r="J81" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Tapas','billing_name'=&gt;'Tapas','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ram Hari Kangsa Banik</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H82" s="2">
         <v>20</v>
@@ -3729,31 +4048,35 @@
         <v>7</v>
       </c>
       <c r="J82" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Ram Hari Kangsa Banik','billing_name'=&gt;'Ram Hari Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Budu Ghosh</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H83" s="2">
         <v>20</v>
@@ -3762,31 +4085,35 @@
         <v>7</v>
       </c>
       <c r="J83" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Budu Ghosh','billing_name'=&gt;'Budu Ghosh','ledger_group_id'=&gt;'15','address1'=&gt;'Matiyari','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sudipto Dutta</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H84" s="2">
         <v>20</v>
@@ -3795,31 +4122,35 @@
         <v>7</v>
       </c>
       <c r="J84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sudipto Dutta','billing_name'=&gt;'Sudipto Dutta','ledger_group_id'=&gt;'15','address1'=&gt;'Matiyari','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ami</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H85" s="2">
         <v>20</v>
@@ -3828,31 +4159,35 @@
         <v>7</v>
       </c>
       <c r="J85" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Ami','billing_name'=&gt;'Ami','ledger_group_id'=&gt;'15','address1'=&gt;'L','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Bhaeromal Varanasi</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H86" s="2">
         <v>20</v>
@@ -3861,31 +4196,35 @@
         <v>7</v>
       </c>
       <c r="J86" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Bhaeromal Varanasi','billing_name'=&gt;'Bhaeromal Varanasi','ledger_group_id'=&gt;'15','address1'=&gt;'Benaras','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sanjay Kangsa Banik</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H87" s="2">
         <v>20</v>
@@ -3894,31 +4233,35 @@
         <v>7</v>
       </c>
       <c r="J87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sanjay Kangsa Banik','billing_name'=&gt;'Sanjay Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pankaj Agarwal</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="G88" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H88" s="2">
         <v>20</v>
@@ -3927,31 +4270,35 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Pankaj Agarwal','billing_name'=&gt;'Pankaj Agarwal','ledger_group_id'=&gt;'15','address1'=&gt;'Hathras','mobile1'=&gt;'8449440006','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'2','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sibu Kangsa Banik</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H89" s="2">
         <v>20</v>
@@ -3960,31 +4307,35 @@
         <v>7</v>
       </c>
       <c r="J89" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sibu Kangsa Banik','billing_name'=&gt;'Sibu Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'L','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Munna</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H90" s="2">
         <v>20</v>
@@ -3993,31 +4344,35 @@
         <v>700001</v>
       </c>
       <c r="J90" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Munna','billing_name'=&gt;'Munna','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Monoronjon</v>
       </c>
       <c r="D91" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H91" s="2">
         <v>20</v>
@@ -4026,31 +4381,35 @@
         <v>7</v>
       </c>
       <c r="J91" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Monoronjon','billing_name'=&gt;'Monoronjon','ledger_group_id'=&gt;'15','address1'=&gt;'Muchibajar','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toton</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92" s="2">
         <v>20</v>
@@ -4059,31 +4418,35 @@
         <v>7</v>
       </c>
       <c r="J92" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Toton','billing_name'=&gt;'Toton','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Kamal Kangsa Banik</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H93" s="2">
         <v>20</v>
@@ -4092,31 +4455,35 @@
         <v>700001</v>
       </c>
       <c r="J93" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Kamal Kangsa Banik','billing_name'=&gt;'Kamal Kangsa Banik','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Montu</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F94" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H94" s="2">
         <v>20</v>
@@ -4125,31 +4492,35 @@
         <v>7</v>
       </c>
       <c r="J94" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Montu','billing_name'=&gt;'Montu','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'7','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Jamir</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H95" s="2">
         <v>20</v>
@@ -4158,31 +4529,35 @@
         <v>7</v>
       </c>
       <c r="J95" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Jamir','billing_name'=&gt;'Jamir','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'9','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Parvez Khan</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E96" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H96" s="2">
         <v>20</v>
@@ -4191,31 +4566,35 @@
         <v>4</v>
       </c>
       <c r="J96" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Parvez Khan','billing_name'=&gt;'Parvez Khan','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'9997083575','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'4','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ajit Sarnakar</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E97" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H97" s="2">
         <v>20</v>
@@ -4224,31 +4603,35 @@
         <v>700001</v>
       </c>
       <c r="J97" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Ajit Sarnakar','billing_name'=&gt;'Ajit Sarnakar','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'9143258372','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sattvic Cosmocare</v>
       </c>
       <c r="D98" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H98" s="2">
         <v>20</v>
@@ -4257,31 +4640,35 @@
         <v>700001</v>
       </c>
       <c r="J98" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sattvic Cosmocare','billing_name'=&gt;'Sattvic Cosmocare','ledger_group_id'=&gt;'15','address1'=&gt;'71, Bartala Street, 2Nd Floor','mobile1'=&gt;'7439037676','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sumon Mondol</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H99" s="2">
         <v>20</v>
@@ -4290,31 +4677,35 @@
         <v>700001</v>
       </c>
       <c r="J99" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sumon Mondol','billing_name'=&gt;'Sumon Mondol','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nirmal Kangsa Banik (Ashirbad)</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H100" s="2">
         <v>20</v>
@@ -4323,31 +4714,35 @@
         <v>743112</v>
       </c>
       <c r="J100" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Nirmal Kangsa Banik (Ashirbad)','billing_name'=&gt;'Nirmal Kangsa Banik (Ashirbad)','ledger_group_id'=&gt;'15','address1'=&gt;'Bally','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'743112','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Moti</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H101" s="2">
         <v>20</v>
@@ -4356,31 +4751,35 @@
         <v>700001</v>
       </c>
       <c r="J101" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Moti','billing_name'=&gt;'Moti','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Mohon Karmakar</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H102" s="2">
         <v>20</v>
@@ -4389,31 +4788,35 @@
         <v>700001</v>
       </c>
       <c r="J102" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Mohon Karmakar','billing_name'=&gt;'Mohon Karmakar','ledger_group_id'=&gt;'15','address1'=&gt;'Patrasayer','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sanjit Kundu</v>
       </c>
       <c r="D103" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H103" s="2">
         <v>20</v>
@@ -4422,31 +4825,35 @@
         <v>700001</v>
       </c>
       <c r="J103" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sanjit Kundu','billing_name'=&gt;'Sanjit Kundu','ledger_group_id'=&gt;'15','address1'=&gt;'Nabadip','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Impex</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F104" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="G104" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H104" s="2">
         <v>20</v>
@@ -4455,31 +4862,35 @@
         <v>444001</v>
       </c>
       <c r="J104" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L104">
         <v>110000</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Impex','billing_name'=&gt;'Impex','ledger_group_id'=&gt;'15','address1'=&gt;'Moradabad','mobile1'=&gt;'9411969982','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'444001','transaction_type_id'=&gt;2,'opening_balance'=&gt;110000],</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dutta Brothers</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H105" s="2">
         <v>20</v>
@@ -4488,31 +4899,35 @@
         <v>700001</v>
       </c>
       <c r="J105" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Dutta Brothers','billing_name'=&gt;'Dutta Brothers','ledger_group_id'=&gt;'15','address1'=&gt;'Matiyari','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Tarak Saha </v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H106" s="2">
         <v>20</v>
@@ -4521,31 +4936,35 @@
         <v>700001</v>
       </c>
       <c r="J106" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Tarak Saha ','billing_name'=&gt;'Tarak Saha ','ledger_group_id'=&gt;'15','address1'=&gt;'Nabadwip','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Arohi Traders</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E107" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H107" s="2">
         <v>20</v>
@@ -4554,31 +4973,35 @@
         <v>711101</v>
       </c>
       <c r="J107" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Arohi Traders','billing_name'=&gt;'Arohi Traders','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'9831110286','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'711101','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Manohar</v>
       </c>
       <c r="D108" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H108" s="2">
         <v>20</v>
@@ -4587,31 +5010,35 @@
         <v>700001</v>
       </c>
       <c r="J108" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Manohar','billing_name'=&gt;'Manohar','ledger_group_id'=&gt;'15','address1'=&gt;'Patna','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Brojen Das</v>
       </c>
       <c r="D109" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H109" s="2">
         <v>20</v>
@@ -4620,31 +5047,35 @@
         <v>700001</v>
       </c>
       <c r="J109" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Brojen Das','billing_name'=&gt;'Brojen Das','ledger_group_id'=&gt;'15','address1'=&gt;'Sheraphuli','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Bdk</v>
       </c>
       <c r="D110" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H110" s="2">
         <v>20</v>
@@ -4653,31 +5084,35 @@
         <v>700001</v>
       </c>
       <c r="J110" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Bdk','billing_name'=&gt;'Bdk','ledger_group_id'=&gt;'15','address1'=&gt;'Bankura','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Adi Sree Durga</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H111" s="2">
         <v>20</v>
@@ -4686,31 +5121,35 @@
         <v>700001</v>
       </c>
       <c r="J111" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Adi Sree Durga','billing_name'=&gt;'Adi Sree Durga','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sutapan Ghosh</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F112" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H112" s="2">
         <v>20</v>
@@ -4719,31 +5158,35 @@
         <v>700001</v>
       </c>
       <c r="J112" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sutapan Ghosh','billing_name'=&gt;'Sutapan Ghosh','ledger_group_id'=&gt;'15','address1'=&gt;'Nabadwip','mobile1'=&gt;'9932397409','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sanatan (Mp)</v>
       </c>
       <c r="D113" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H113" s="2">
         <v>20</v>
@@ -4752,31 +5195,35 @@
         <v>700001</v>
       </c>
       <c r="J113" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sanatan (Mp)','billing_name'=&gt;'Sanatan (Mp)','ledger_group_id'=&gt;'15','address1'=&gt;'Baranagar','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Sanjay Raha</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F114" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H114" s="2">
         <v>20</v>
@@ -4785,31 +5232,35 @@
         <v>700001</v>
       </c>
       <c r="J114" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Sanjay Raha','billing_name'=&gt;'Sanjay Raha','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Navjyoti Enterprise</v>
       </c>
       <c r="D115" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F115" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="G115" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H115" s="2">
         <v>20</v>
@@ -4818,31 +5269,35 @@
         <v>135001</v>
       </c>
       <c r="J115" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L115">
         <v>609632</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Navjyoti Enterprise','billing_name'=&gt;'Navjyoti Enterprise','ledger_group_id'=&gt;'15','address1'=&gt;'Manohar Colony Jagadhari','mobile1'=&gt;'9896045947','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'135001','transaction_type_id'=&gt;2,'opening_balance'=&gt;609632],</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rabi Dhar</v>
       </c>
       <c r="D116" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H116" s="2">
         <v>20</v>
@@ -4851,31 +5306,35 @@
         <v>700001</v>
       </c>
       <c r="J116" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Rabi Dhar','billing_name'=&gt;'Rabi Dhar','ledger_group_id'=&gt;'15','address1'=&gt;'Berhampore','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Lokenath</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="E117" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H117" s="2">
         <v>20</v>
@@ -4884,31 +5343,35 @@
         <v>700001</v>
       </c>
       <c r="J117" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Lokenath','billing_name'=&gt;'Lokenath','ledger_group_id'=&gt;'15','address1'=&gt;'Duttapukur','mobile1'=&gt;'9874114986','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Raees</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E118" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F118" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H118" s="2">
         <v>20</v>
@@ -4917,31 +5380,35 @@
         <v>700001</v>
       </c>
       <c r="J118" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Raees','billing_name'=&gt;'Raees','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'9932077248','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Bihari Gobndo Kundu</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E119" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H119" s="2">
         <v>20</v>
@@ -4950,31 +5417,35 @@
         <v>700001</v>
       </c>
       <c r="J119" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Bihari Gobndo Kundu','billing_name'=&gt;'Bihari Gobndo Kundu','ledger_group_id'=&gt;'15','address1'=&gt;'Kolkata','mobile1'=&gt;'7','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Baiya</v>
       </c>
       <c r="D120" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H120" s="2">
         <v>20</v>
@@ -4983,13 +5454,18 @@
         <v>700001</v>
       </c>
       <c r="J120" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L120">
         <v>0</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="3"/>
+        <v>['ledger_name'=&gt;'Baiya','billing_name'=&gt;'Baiya','ledger_group_id'=&gt;'15','address1'=&gt;'Odisha','mobile1'=&gt;'8','mobile2'=&gt;'','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;2,'opening_balance'=&gt;0],</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>